--- a/biology/Biologie cellulaire et moléculaire/George_Wells_Beadle/George_Wells_Beadle.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/George_Wells_Beadle/George_Wells_Beadle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Wells Beadle, né le 22 octobre 1903 à Wahoo dans le Nebraska aux États-Unis et mort le 9 juin 1989 (à 85 ans), est un scientifique américain, spécialiste en génétique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né de parents agriculteurs dans le Corn Belt, Beadle poursuit des études d'agronomie à l'Université Cornell. Par la suite, il travaille beaucoup sur la génétique du maïs.
 Une polémique acharnée l'oppose longtemps, jusqu'à leur mort en 1989, à Paul Christoph Mangelsdorf au sujet de l'origine génétique du maïs cultivé. La théorie de Beadle, selon laquelle le maïs descend de la téosinte, semble confirmée par les dernières découvertes en biologie moléculaire et en hypothèse un gène - une enzyme.
